--- a/intent-based_bot/testing_results/visualization_intent-less_iteration_results.xlsx
+++ b/intent-based_bot/testing_results/visualization_intent-less_iteration_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimberly Kent\Documents\Master\HS23\Masterarbeit\Masters-Thesis\intent-based_bot\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA6CE9D1-3948-4A9D-8D50-E37B57E2080C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7DD500-5E37-41D3-BF4C-DED50BCA3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/intent-based_bot/testing_results/visualization_intent-less_iteration_results.xlsx
+++ b/intent-based_bot/testing_results/visualization_intent-less_iteration_results.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimberly Kent\Documents\Master\HS23\Masterarbeit\Masters-Thesis\intent-based_bot\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7DD500-5E37-41D3-BF4C-DED50BCA3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308C6C41-1883-4220-BAD4-2632C865A8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="results_per_iteration" sheetId="1" r:id="rId1"/>
-    <sheet name="iteration_bar_chart" sheetId="2" r:id="rId2"/>
-    <sheet name="robustnes" sheetId="3" r:id="rId3"/>
-    <sheet name="BERT_comparison" sheetId="4" r:id="rId4"/>
+    <sheet name="iteration_bar_chart" sheetId="2" r:id="rId1"/>
+    <sheet name="robustnes" sheetId="3" r:id="rId2"/>
+    <sheet name="BERT_comparison" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t>avg_number_utterances</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>macro F1 score</t>
   </si>
@@ -54,9 +47,6 @@
   </si>
   <si>
     <t>First Iteration (10)</t>
-  </si>
-  <si>
-    <t>Second Iteration(15)</t>
   </si>
   <si>
     <t>Third Iteration (25)</t>
@@ -94,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -127,7 +117,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -151,422 +141,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results_per_iteration!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iteration</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>results_per_iteration!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1C4-46D6-B30A-43ECE6D14A56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results_per_iteration!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>avg_number_utterances</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>results_per_iteration!$B$2:$B$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1C4-46D6-B30A-43ECE6D14A56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>results_per_iteration!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>macro F1 score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>results_per_iteration!$C$2:$C$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.73537604456824501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.81379104741556196</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.971874129768866</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97256426089378001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97772208298524099</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E1C4-46D6-B30A-43ECE6D14A56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="513026479"/>
-        <c:axId val="510753263"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="513026479"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="510753263"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="510753263"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="513026479"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -816,7 +390,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-CH"/>
+                  <a:rPr lang="de-CH">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="DejaVu Sans" panose="020B0603030804020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
                   <a:t>Macro F1 Score</a:t>
                 </a:r>
               </a:p>
@@ -935,7 +516,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1283,7 +864,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1841,46 +1422,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3390,551 +2931,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>168275</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6632CD2D-00DE-B8CF-3D49-66488E279F7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3975,7 +2972,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4016,7 +3013,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4319,115 +3316,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="4" width="31" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0.73537604456824501</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0.81379104741556196</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>0.971874129768866</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>35</v>
-      </c>
-      <c r="C5">
-        <v>0.97256426089378001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>0.97772208298524099</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD91C30D-5D0B-430E-84F6-3E8C665F31A8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4437,15 +3330,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.73537604456824501</v>
@@ -4453,7 +3346,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0.81379104741556196</v>
@@ -4461,7 +3354,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.971874129768866</v>
@@ -4469,7 +3362,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.97256426089378001</v>
@@ -4477,7 +3370,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.97772208298524099</v>
@@ -4489,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BAFDDD9-7BF7-4541-A9E3-DDC0548E1567}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4505,15 +3398,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
         <v>0.97256426089378001</v>
@@ -4521,7 +3414,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0.97772208298524099</v>
@@ -4533,7 +3426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353BE0F0-AD33-4D5D-AA9B-A4B76E9DF622}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -4545,15 +3438,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>0.97772208298524099</v>
@@ -4561,7 +3454,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>0.90831388089403797</v>
